--- a/my_file.xlsx
+++ b/my_file.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
   <si>
     <t>ggh</t>
+  </si>
+  <si>
+    <t>ads</t>
   </si>
 </sst>
 </file>
@@ -24,12 +27,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +45,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -60,6 +56,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -67,22 +78,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,6 +103,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -99,6 +127,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,33 +148,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,44 +172,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +194,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -210,7 +302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,31 +344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,97 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +393,60 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,21 +475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -450,190 +485,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -958,17 +954,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/my_file.xlsx
+++ b/my_file.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
   <si>
     <t>ggh</t>
   </si>
   <si>
     <t>ads</t>
+  </si>
+  <si>
+    <t>mml</t>
   </si>
 </sst>
 </file>
@@ -29,8 +32,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -56,6 +59,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -65,30 +152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,14 +167,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,67 +185,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -194,12 +197,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -212,7 +323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,121 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,26 +400,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,15 +441,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -475,161 +456,183 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -954,13 +957,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -972,6 +975,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/my_file.xlsx
+++ b/my_file.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
   <si>
-    <t>ggh</t>
+    <t>swd</t>
   </si>
   <si>
-    <t>ads</t>
+    <t>wwdgjhdg</t>
   </si>
   <si>
-    <t>mml</t>
+    <t>hs</t>
   </si>
 </sst>
 </file>
@@ -30,9 +30,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -44,10 +44,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -59,38 +91,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -99,21 +101,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,56 +122,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -197,31 +197,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,151 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,8 +393,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -402,10 +404,32 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -426,17 +450,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,36 +488,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,130 +509,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -957,26 +957,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/my_file.xlsx
+++ b/my_file.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
   <si>
-    <t>swd</t>
+    <t>hdjk</t>
   </si>
   <si>
-    <t>wwdgjhdg</t>
-  </si>
-  <si>
-    <t>hs</t>
+    <t>efjh</t>
   </si>
 </sst>
 </file>
@@ -30,8 +27,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -44,16 +41,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,7 +102,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -72,6 +113,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,24 +132,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,30 +148,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -145,29 +157,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,9 +178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,187 +194,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,6 +385,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,73 +485,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,130 +506,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -957,27 +954,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A4:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/my_file.xlsx
+++ b/my_file.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+  <si>
+    <t>gku</t>
+  </si>
+  <si>
+    <t>jhk</t>
+  </si>
   <si>
     <t>hdjk</t>
   </si>
@@ -27,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -41,29 +47,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,9 +56,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,6 +94,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -94,31 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +167,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -140,46 +183,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,6 +200,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -206,6 +314,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -230,151 +344,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,69 +391,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,10 +428,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -506,130 +512,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -954,22 +960,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
